--- a/georgia_covid.xlsx
+++ b/georgia_covid.xlsx
@@ -200,10 +200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF128"/>
+  <dimension ref="A1:AF131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G122" activeCellId="0" sqref="G122"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P131" activeCellId="0" sqref="P131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7010,6 +7010,141 @@
         <v>0</v>
       </c>
     </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>4033</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>1705</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>624</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="M129" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O129" s="1" t="n">
+        <f aca="false">B129-SUM(C129:N129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>4260</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>1676</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>591</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="M130" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="O130" s="1" t="n">
+        <f aca="false">B130-SUM(C130:N130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>5068</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>483</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>1959</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>980</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>335</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="M131" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="O131" s="1" t="n">
+        <f aca="false">B131-SUM(C131:N131)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/georgia_covid.xlsx
+++ b/georgia_covid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Regional breakdown of cases</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">Conflict: Adjara was reported as 165 in daily press briefing. The NCDC report has 156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in testing policy: contacts of confirmed cases are only tested if/when symptomatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradual expansion of testing started</t>
   </si>
 </sst>
 </file>
@@ -200,10 +206,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF131"/>
+  <dimension ref="A1:AF134"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P131" activeCellId="0" sqref="P131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3389,7 +3395,9 @@
         <f aca="false">B69-SUM(C69:N69)</f>
         <v>0</v>
       </c>
-      <c r="P69" s="1"/>
+      <c r="P69" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -7099,6 +7107,9 @@
         <f aca="false">B130-SUM(C130:N130)</f>
         <v>0</v>
       </c>
+      <c r="P130" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="n">
@@ -7142,6 +7153,138 @@
       </c>
       <c r="O131" s="1" t="n">
         <f aca="false">B131-SUM(C131:N131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
+        <v>44170</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>2053</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>931</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>528</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="L132" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="M132" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="O132" s="1" t="n">
+        <f aca="false">B132-SUM(C132:N132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
+        <v>44171</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>4321</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>491</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>1615</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>564</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="M133" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O133" s="1" t="n">
+        <f aca="false">B133-SUM(C133:N133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
+        <v>44172</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>2501</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O134" s="1" t="n">
+        <f aca="false">B134-SUM(C134:N134)</f>
         <v>0</v>
       </c>
     </row>

--- a/georgia_covid.xlsx
+++ b/georgia_covid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Regional breakdown of cases</t>
   </si>
@@ -91,7 +91,10 @@
     <t xml:space="preserve">Change in testing policy: contacts of confirmed cases are only tested if/when symptomatic</t>
   </si>
   <si>
-    <t xml:space="preserve">Gradual expansion of testing started</t>
+    <t xml:space="preserve">Expansion of testing started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further expansion of testing</t>
   </si>
 </sst>
 </file>
@@ -107,6 +110,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,7 +131,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,10 +209,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF134"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P138" activeCellId="0" sqref="P138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2384,7 +2387,7 @@
       <c r="B52" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="C52" s="1" t="n">
         <v>144</v>
       </c>
       <c r="D52" s="1" t="n">
@@ -2416,7 +2419,7 @@
         <f aca="false">B52-SUM(C52:N52)</f>
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q52" s="1"/>
@@ -2551,7 +2554,7 @@
       <c r="B55" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="C55" s="3" t="n">
+      <c r="C55" s="1" t="n">
         <v>116</v>
       </c>
       <c r="D55" s="1" t="n">
@@ -2585,7 +2588,7 @@
         <f aca="false">B55-SUM(C55:N55)</f>
         <v>3</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="P55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q55" s="1"/>
@@ -2777,7 +2780,7 @@
       <c r="B59" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="C59" s="3" t="n">
+      <c r="C59" s="1" t="n">
         <v>165</v>
       </c>
       <c r="D59" s="1" t="n">
@@ -2950,7 +2953,7 @@
       <c r="B62" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="1" t="n">
         <v>166</v>
       </c>
       <c r="D62" s="1" t="n">
@@ -7288,6 +7291,189 @@
         <v>0</v>
       </c>
     </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
+        <v>44173</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>4673</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>1729</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>673</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>419</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="M135" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="O135" s="1" t="n">
+        <f aca="false">B135-SUM(C135:N135)</f>
+        <v>0</v>
+      </c>
+      <c r="P135" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
+        <v>44174</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>4734</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>489</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>1637</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>823</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>381</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="M136" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="O136" s="1" t="n">
+        <f aca="false">B136-SUM(C136:N136)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>4570</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>2067</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>708</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="M137" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O137" s="1" t="n">
+        <f aca="false">B137-SUM(C137:N137)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>1708</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>636</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>268</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="M138" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="O138" s="1" t="n">
+        <f aca="false">B138-SUM(C138:N138)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/georgia_covid.xlsx
+++ b/georgia_covid.xlsx
@@ -105,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -126,11 +126,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,10 +180,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,10 +200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P138" activeCellId="0" sqref="P138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O144" activeCellId="0" sqref="O144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7335,7 +7326,7 @@
         <f aca="false">B135-SUM(C135:N135)</f>
         <v>0</v>
       </c>
-      <c r="P135" s="3" t="s">
+      <c r="P135" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7471,6 +7462,363 @@
       </c>
       <c r="O138" s="1" t="n">
         <f aca="false">B138-SUM(C138:N138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
+        <v>44177</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>3907</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>599</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="L139" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="M139" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="O139" s="1" t="n">
+        <f aca="false">B139-SUM(C139:N139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
+        <v>44178</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>2720</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>1240</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="L140" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="O140" s="1" t="n">
+        <f aca="false">B140-SUM(C140:N140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>1337</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>571</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" s="1" t="n">
+        <f aca="false">B141-SUM(C141:N141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
+        <v>44180</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>3837</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>1461</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>404</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K142" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="L142" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="M142" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="O142" s="1" t="n">
+        <f aca="false">B142-SUM(C142:N142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
+        <v>44181</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>3487</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>1477</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>533</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>283</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="L143" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="M143" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O143" s="1" t="n">
+        <f aca="false">B143-SUM(C143:N143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
+        <v>44182</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>2981</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>1282</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>489</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="K144" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="L144" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="M144" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="O144" s="1" t="n">
+        <f aca="false">B144-SUM(C144:N144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>2635</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>1134</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>338</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="M145" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O145" s="1" t="n">
+        <f aca="false">B145-SUM(C145:N145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
+        <v>44184</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>2904</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>1252</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>495</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="M146" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="O146" s="1" t="n">
+        <f aca="false">B146-SUM(C146:N146)</f>
         <v>0</v>
       </c>
     </row>
